--- a/Garage-Layout/EX-CommandStation/Pin Alias Workings.xlsx
+++ b/Garage-Layout/EX-CommandStation/Pin Alias Workings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\DCC-EX-configs\Garage-Layout\EX-CommandStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E8CE9CA-A14C-4931-8FCF-7491756BA401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC043F6-C592-48DE-B066-7676369A68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09D121E1-19B1-4886-9784-2A472DF88890}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>_DIR</t>
   </si>
@@ -36,10 +37,64 @@
     <t>,</t>
   </si>
   <si>
-    <t>ALIAS(POINT</t>
-  </si>
-  <si>
     <t>)</t>
+  </si>
+  <si>
+    <t>ALIAS(POINT_POWER,211)</t>
+  </si>
+  <si>
+    <t>SET(</t>
+  </si>
+  <si>
+    <t>RESET(</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>ALIAS(</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Dir</t>
+  </si>
+  <si>
+    <t>En</t>
+  </si>
+  <si>
+    <t>Dir Alias</t>
+  </si>
+  <si>
+    <t>En Alias</t>
+  </si>
+  <si>
+    <t>Dir Name</t>
+  </si>
+  <si>
+    <t>En Name</t>
+  </si>
+  <si>
+    <t>POINT_POWER</t>
+  </si>
+  <si>
+    <t>Set Dir</t>
+  </si>
+  <si>
+    <t>Reset Dir</t>
+  </si>
+  <si>
+    <t>Set En</t>
+  </si>
+  <si>
+    <t>Reset En</t>
+  </si>
+  <si>
+    <t>SET(POINT_POWER)</t>
+  </si>
+  <si>
+    <t>RESET(POINT_POWER)</t>
   </si>
 </sst>
 </file>
@@ -391,247 +446,1074 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE0C65-0EB3-477D-8D75-9206151FCA59}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>164</v>
+      </c>
+      <c r="D2">
+        <v>172</v>
+      </c>
+      <c r="E2" t="str">
+        <f>CONCATENATE($A$2,$B2,$A$3)</f>
+        <v>POINT1_DIR</v>
+      </c>
+      <c r="F2" t="str">
+        <f>CONCATENATE($A$2,$B2,$A$4)</f>
+        <v>POINT1_EN</v>
+      </c>
+      <c r="G2" t="str">
+        <f>CONCATENATE($A$1,E2,$A$5,C2,$A$6)</f>
+        <v>ALIAS(POINT1_DIR,164)</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE($A$1,F2,$A$5,D2,$A$6)</f>
+        <v>ALIAS(POINT1_EN,172)</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE($A$8,$E2,$A$6)</f>
+        <v>SET(POINT1_DIR)</v>
+      </c>
+      <c r="J2" t="str">
+        <f>CONCATENATE($A$9,$E2,$A$6)</f>
+        <v>RESET(POINT1_DIR)</v>
+      </c>
+      <c r="K2" t="str">
+        <f>CONCATENATE($A$8,$F2,$A$6)</f>
+        <v>SET(POINT1_EN)</v>
+      </c>
+      <c r="L2" t="str">
+        <f>CONCATENATE($A$9,$F2,$A$6)</f>
+        <v>RESET(POINT1_EN)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>165</v>
+      </c>
+      <c r="D3">
+        <v>173</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E23" si="0">CONCATENATE($A$2,$B3,$A$3)</f>
+        <v>POINT2_DIR</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F23" si="1">CONCATENATE($A$2,$B3,$A$4)</f>
+        <v>POINT2_EN</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G23" si="2">CONCATENATE($A$1,E3,$A$5,C3,$A$6)</f>
+        <v>ALIAS(POINT2_DIR,165)</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H23" si="3">CONCATENATE($A$1,F3,$A$5,D3,$A$6)</f>
+        <v>ALIAS(POINT2_EN,173)</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I23" si="4">CONCATENATE($A$8,$E3,$A$6)</f>
+        <v>SET(POINT2_DIR)</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J23" si="5">CONCATENATE($A$9,$E3,$A$6)</f>
+        <v>RESET(POINT2_DIR)</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K23" si="6">CONCATENATE($A$8,$F3,$A$6)</f>
+        <v>SET(POINT2_EN)</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L23" si="7">CONCATENATE($A$9,$F3,$A$6)</f>
+        <v>RESET(POINT2_EN)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C1">
-        <v>164</v>
-      </c>
-      <c r="D1">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>165</v>
-      </c>
-      <c r="D2">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C4">
         <v>166</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>174</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT3_DIR</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT3_EN</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT3_DIR,166)</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT3_EN,174)</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT3_DIR)</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT3_DIR)</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT3_EN)</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT3_EN)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
         <v>167</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>175</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT4_DIR</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT4_EN</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT4_DIR,167)</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT4_EN,175)</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT4_DIR)</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT4_DIR)</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT4_EN)</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT4_EN)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>168</v>
+      </c>
+      <c r="D6">
+        <v>176</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT5_DIR</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT5_EN</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT5_DIR,168)</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT5_EN,176)</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT5_DIR)</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT5_DIR)</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT5_EN)</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT5_EN)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>177</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT6_DIR</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT6_EN</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT6_DIR,169)</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT6_EN,177)</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT6_DIR)</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT6_DIR)</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT6_EN)</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT6_EN)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>170</v>
+      </c>
+      <c r="D8">
+        <v>178</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT7_DIR</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT7_EN</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT7_DIR,170)</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT7_EN,178)</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT7_DIR)</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT7_DIR)</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT7_EN)</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT7_EN)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>171</v>
+      </c>
+      <c r="D9">
+        <v>179</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT8_DIR</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT8_EN</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT8_DIR,171)</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT8_EN,179)</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT8_DIR)</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT8_DIR)</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT8_EN)</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT8_EN)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>179</v>
+      </c>
+      <c r="D10">
+        <v>187</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT9_DIR</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT9_EN</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT9_DIR,179)</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT9_EN,187)</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT9_DIR)</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT9_DIR)</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT9_EN)</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT9_EN)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>180</v>
+      </c>
+      <c r="D11">
+        <v>188</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT10_DIR</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT10_EN</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT10_DIR,180)</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT10_EN,188)</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT10_DIR)</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT10_DIR)</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT10_EN)</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT10_EN)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>181</v>
+      </c>
+      <c r="D12">
+        <v>189</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT11_DIR</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT11_EN</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT11_DIR,181)</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT11_EN,189)</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT11_DIR)</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT11_DIR)</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT11_EN)</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT11_EN)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>182</v>
+      </c>
+      <c r="D13">
+        <v>190</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT12_DIR</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT12_EN</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT12_DIR,182)</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT12_EN,190)</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT12_DIR)</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT12_DIR)</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT12_EN)</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT12_EN)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>183</v>
+      </c>
+      <c r="D14">
+        <v>191</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT13_DIR</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT13_EN</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT13_DIR,183)</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT13_EN,191)</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT13_DIR)</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT13_DIR)</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT13_EN)</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT13_EN)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>184</v>
+      </c>
+      <c r="D15">
+        <v>192</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT14_DIR</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT14_EN</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT14_DIR,184)</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT14_EN,192)</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT14_DIR)</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT14_DIR)</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT14_EN)</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT14_EN)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>185</v>
+      </c>
+      <c r="D16">
+        <v>193</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT15_DIR</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT15_EN</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT15_DIR,185)</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT15_EN,193)</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT15_DIR)</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT15_DIR)</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT15_EN)</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT15_EN)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>186</v>
+      </c>
+      <c r="D17">
+        <v>194</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT16_DIR</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT16_EN</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT16_DIR,186)</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT16_EN,194)</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT16_DIR)</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT16_DIR)</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT16_EN)</v>
+      </c>
+      <c r="L17" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT16_EN)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>187</v>
+      </c>
+      <c r="D18">
+        <v>195</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT17_DIR</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT17_EN</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT17_DIR,187)</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT17_EN,195)</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT17_DIR)</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT17_DIR)</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT17_EN)</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT17_EN)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>196</v>
+      </c>
+      <c r="D19">
+        <v>204</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT18_DIR</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT18_EN</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT18_DIR,196)</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT18_EN,204)</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT18_DIR)</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT18_DIR)</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT18_EN)</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT18_EN)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>197</v>
+      </c>
+      <c r="D20">
+        <v>205</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT19_DIR</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT19_EN</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT19_DIR,197)</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT19_EN,205)</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT19_DIR)</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT19_DIR)</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT19_EN)</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT19_EN)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>198</v>
+      </c>
+      <c r="D21">
+        <v>206</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT20_DIR</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT20_EN</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT20_DIR,198)</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT20_EN,206)</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT20_DIR)</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT20_DIR)</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT20_EN)</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT20_EN)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>199</v>
+      </c>
+      <c r="D22">
+        <v>207</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT21_DIR</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT21_EN</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT21_DIR,199)</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT21_EN,207)</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT21_DIR)</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT21_DIR)</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT21_EN)</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT21_EN)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>200</v>
+      </c>
+      <c r="D23">
+        <v>208</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>POINT22_DIR</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>POINT22_EN</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>ALIAS(POINT22_DIR,200)</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>ALIAS(POINT22_EN,208)</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="4"/>
+        <v>SET(POINT22_DIR)</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="5"/>
+        <v>RESET(POINT22_DIR)</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="6"/>
+        <v>SET(POINT22_EN)</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="7"/>
+        <v>RESET(POINT22_EN)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>201</v>
+      </c>
+      <c r="D24">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>202</v>
+      </c>
+      <c r="D25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>203</v>
+      </c>
+      <c r="D26">
+        <v>211</v>
+      </c>
+      <c r="F26" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>168</v>
-      </c>
-      <c r="D5">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C6">
-        <v>169</v>
-      </c>
-      <c r="D6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7">
-        <v>170</v>
-      </c>
-      <c r="D7">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8">
-        <v>171</v>
-      </c>
-      <c r="D8">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9">
-        <v>179</v>
-      </c>
-      <c r="D9">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C10">
-        <v>180</v>
-      </c>
-      <c r="D10">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11">
-        <v>181</v>
-      </c>
-      <c r="D11">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12">
-        <v>182</v>
-      </c>
-      <c r="D12">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13">
-        <v>183</v>
-      </c>
-      <c r="D13">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14">
-        <v>184</v>
-      </c>
-      <c r="D14">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15">
-        <v>185</v>
-      </c>
-      <c r="D15">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>186</v>
-      </c>
-      <c r="D16">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>187</v>
-      </c>
-      <c r="D17">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C23">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C24">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C25">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C26">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <v>211</v>
+      <c r="I26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Garage-Layout/EX-CommandStation/Pin Alias Workings.xlsx
+++ b/Garage-Layout/EX-CommandStation/Pin Alias Workings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\DCC-EX-configs\Garage-Layout\EX-CommandStation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC043F6-C592-48DE-B066-7676369A68AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E509F08B-8D41-417F-A6F5-2DB0AECA0CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09D121E1-19B1-4886-9784-2A472DF88890}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>_DIR</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>RESET(POINT_POWER)</t>
+  </si>
+  <si>
+    <t>Macro</t>
+  </si>
+  <si>
+    <t>ROKUHANPOINT(</t>
   </si>
 </sst>
 </file>
@@ -446,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CFE0C65-0EB3-477D-8D75-9206151FCA59}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,9 +470,10 @@
     <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -503,8 +510,11 @@
       <c r="L1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -549,8 +559,12 @@
         <f>CONCATENATE($A$9,$F2,$A$6)</f>
         <v>RESET(POINT1_EN)</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M2" t="str">
+        <f>CONCATENATE($A$10,B2,$A$5,E2,$A$5,F2,$A$5,"",$A$5,"POINT",B2,$A$6)</f>
+        <v>ROKUHANPOINT(1,POINT1_DIR,POINT1_EN,,POINT1)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -572,11 +586,11 @@
         <v>POINT2_EN</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G23" si="2">CONCATENATE($A$1,E3,$A$5,C3,$A$6)</f>
+        <f t="shared" ref="G3:G22" si="2">CONCATENATE($A$1,E3,$A$5,C3,$A$6)</f>
         <v>ALIAS(POINT2_DIR,165)</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H23" si="3">CONCATENATE($A$1,F3,$A$5,D3,$A$6)</f>
+        <f t="shared" ref="H3:H22" si="3">CONCATENATE($A$1,F3,$A$5,D3,$A$6)</f>
         <v>ALIAS(POINT2_EN,173)</v>
       </c>
       <c r="I3" t="str">
@@ -595,8 +609,12 @@
         <f t="shared" ref="L3:L23" si="7">CONCATENATE($A$9,$F3,$A$6)</f>
         <v>RESET(POINT2_EN)</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M22" si="8">CONCATENATE($A$10,B3,$A$5,E3,$A$5,F3,$A$5,"",$A$5,"POINT",B3,$A$6)</f>
+        <v>ROKUHANPOINT(2,POINT2_DIR,POINT2_EN,,POINT2)</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -641,8 +659,12 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT3_EN)</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(3,POINT3_DIR,POINT3_EN,,POINT3)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -687,8 +709,12 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT4_EN)</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(4,POINT4_DIR,POINT4_EN,,POINT4)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -733,8 +759,12 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT5_EN)</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(5,POINT5_DIR,POINT5_EN,,POINT5)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -776,8 +806,12 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT6_EN)</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(6,POINT6_DIR,POINT6_EN,,POINT6)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -822,8 +856,12 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT7_EN)</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(7,POINT7_DIR,POINT7_EN,,POINT7)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -868,16 +906,23 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT8_EN)</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(8,POINT8_DIR,POINT8_EN,,POINT8)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
       <c r="B10">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -889,11 +934,11 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT9_DIR,179)</v>
+        <v>ALIAS(POINT9_DIR,180)</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT9_EN,187)</v>
+        <v>ALIAS(POINT9_EN,188)</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="4"/>
@@ -911,16 +956,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT9_EN)</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(9,POINT9_DIR,POINT9_EN,,POINT9)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>10</v>
       </c>
       <c r="C11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -932,11 +981,11 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT10_DIR,180)</v>
+        <v>ALIAS(POINT10_DIR,181)</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT10_EN,188)</v>
+        <v>ALIAS(POINT10_EN,189)</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="4"/>
@@ -954,16 +1003,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT10_EN)</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(10,POINT10_DIR,POINT10_EN,,POINT10)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>11</v>
       </c>
       <c r="C12">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D12">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -975,11 +1028,11 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT11_DIR,181)</v>
+        <v>ALIAS(POINT11_DIR,182)</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT11_EN,189)</v>
+        <v>ALIAS(POINT11_EN,190)</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="4"/>
@@ -997,16 +1050,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT11_EN)</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(11,POINT11_DIR,POINT11_EN,,POINT11)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>12</v>
       </c>
       <c r="C13">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D13">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -1018,11 +1075,11 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT12_DIR,182)</v>
+        <v>ALIAS(POINT12_DIR,183)</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT12_EN,190)</v>
+        <v>ALIAS(POINT12_EN,191)</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="4"/>
@@ -1040,16 +1097,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT12_EN)</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(12,POINT12_DIR,POINT12_EN,,POINT12)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>13</v>
       </c>
       <c r="C14">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D14">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -1061,11 +1122,11 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT13_DIR,183)</v>
+        <v>ALIAS(POINT13_DIR,184)</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT13_EN,191)</v>
+        <v>ALIAS(POINT13_EN,192)</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="4"/>
@@ -1083,16 +1144,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT13_EN)</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(13,POINT13_DIR,POINT13_EN,,POINT13)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>14</v>
       </c>
       <c r="C15">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D15">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
@@ -1104,11 +1169,11 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT14_DIR,184)</v>
+        <v>ALIAS(POINT14_DIR,185)</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT14_EN,192)</v>
+        <v>ALIAS(POINT14_EN,193)</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="4"/>
@@ -1126,16 +1191,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT14_EN)</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(14,POINT14_DIR,POINT14_EN,,POINT14)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>15</v>
       </c>
       <c r="C16">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D16">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -1147,11 +1216,11 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT15_DIR,185)</v>
+        <v>ALIAS(POINT15_DIR,186)</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT15_EN,193)</v>
+        <v>ALIAS(POINT15_EN,194)</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="4"/>
@@ -1169,16 +1238,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT15_EN)</v>
       </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(15,POINT15_DIR,POINT15_EN,,POINT15)</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>16</v>
       </c>
       <c r="C17">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D17">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -1190,11 +1263,11 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT16_DIR,186)</v>
+        <v>ALIAS(POINT16_DIR,187)</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT16_EN,194)</v>
+        <v>ALIAS(POINT16_EN,195)</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="4"/>
@@ -1212,16 +1285,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT16_EN)</v>
       </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(16,POINT16_DIR,POINT16_EN,,POINT16)</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>17</v>
       </c>
       <c r="C18">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D18">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -1233,11 +1310,11 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT17_DIR,187)</v>
+        <v>ALIAS(POINT17_DIR,196)</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT17_EN,195)</v>
+        <v>ALIAS(POINT17_EN,204)</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="4"/>
@@ -1255,16 +1332,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT17_EN)</v>
       </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(17,POINT17_DIR,POINT17_EN,,POINT17)</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>18</v>
       </c>
       <c r="C19">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D19">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -1276,11 +1357,11 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT18_DIR,196)</v>
+        <v>ALIAS(POINT18_DIR,197)</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT18_EN,204)</v>
+        <v>ALIAS(POINT18_EN,205)</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="4"/>
@@ -1298,16 +1379,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT18_EN)</v>
       </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(18,POINT18_DIR,POINT18_EN,,POINT18)</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>19</v>
       </c>
       <c r="C20">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D20">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -1319,11 +1404,11 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT19_DIR,197)</v>
+        <v>ALIAS(POINT19_DIR,198)</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT19_EN,205)</v>
+        <v>ALIAS(POINT19_EN,206)</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="4"/>
@@ -1341,16 +1426,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT19_EN)</v>
       </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(19,POINT19_DIR,POINT19_EN,,POINT19)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>20</v>
       </c>
       <c r="C21">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D21">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -1362,11 +1451,11 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT20_DIR,198)</v>
+        <v>ALIAS(POINT20_DIR,199)</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT20_EN,206)</v>
+        <v>ALIAS(POINT20_EN,207)</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="4"/>
@@ -1384,16 +1473,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT20_EN)</v>
       </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M21" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(20,POINT20_DIR,POINT20_EN,,POINT20)</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>21</v>
       </c>
       <c r="C22">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D22">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -1405,11 +1498,11 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>ALIAS(POINT21_DIR,199)</v>
+        <v>ALIAS(POINT21_DIR,200)</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>ALIAS(POINT21_EN,207)</v>
+        <v>ALIAS(POINT21_EN,208)</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="4"/>
@@ -1427,16 +1520,20 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT21_EN)</v>
       </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M22" t="str">
+        <f t="shared" si="8"/>
+        <v>ROKUHANPOINT(21,POINT21_DIR,POINT21_EN,,POINT21)</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>22</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D23">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
@@ -1447,12 +1544,12 @@
         <v>POINT22_EN</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" si="2"/>
-        <v>ALIAS(POINT22_DIR,200)</v>
+        <f t="shared" ref="G23" si="9">CONCATENATE($A$1,E23,$A$5,C23,$A$6)</f>
+        <v>ALIAS(POINT22_DIR,201)</v>
       </c>
       <c r="H23" t="str">
-        <f t="shared" si="3"/>
-        <v>ALIAS(POINT22_EN,208)</v>
+        <f t="shared" ref="H23" si="10">CONCATENATE($A$1,F23,$A$5,D23,$A$6)</f>
+        <v>ALIAS(POINT22_EN,209)</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="4"/>
@@ -1470,49 +1567,36 @@
         <f t="shared" si="7"/>
         <v>RESET(POINT22_EN)</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24">
-        <v>23</v>
-      </c>
+      <c r="M23" t="str">
+        <f t="shared" ref="M23" si="11">CONCATENATE($A$10,B23,$A$5,E23,$A$5,F23,$A$5,"",$A$5,"POINT",B23,$A$6)</f>
+        <v>ROKUHANPOINT(22,POINT22_DIR,POINT22_EN,,POINT22)</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C24">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D24">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25">
-        <v>24</v>
-      </c>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C25">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D25">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>203</v>
-      </c>
-      <c r="D26">
         <v>211</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F25" t="s">
         <v>16</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G25" t="s">
         <v>4</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I25" t="s">
         <v>21</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J25" t="s">
         <v>22</v>
       </c>
     </row>
